--- a/excel-files/ean/ean_codes.xlsx
+++ b/excel-files/ean/ean_codes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,35 +443,175 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2143034933357</t>
+          <t>2990772657482</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4690564734158</t>
+          <t>5148978749000</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>8372408960915</t>
+          <t>2675007221609</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>7078213452681</t>
+          <t>1474137841008</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>7700879009387</t>
+          <t>4933978579872</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2228556517576</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3293713986133</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>6245582111038</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>1020588646679</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3698878232632</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4293726806279</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>6666170826984</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>6969396449065</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2544600196495</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3269169683746</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>8274378575057</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4477311159178</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2797199400568</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4227361770802</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>5403302178649</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>4892787419126</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2593380964851</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>7430684413972</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>5855834106901</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>1717383177084</t>
         </is>
       </c>
     </row>

--- a/excel-files/ean/ean_codes.xlsx
+++ b/excel-files/ean/ean_codes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A26"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,175 +443,28 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2990772657482</t>
+          <t>6680489841198</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>5148978749000</t>
+          <t>2607352459873</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2675007221609</t>
+          <t>5447221072876</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1474137841008</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4933978579872</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2228556517576</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>3293713986133</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>6245582111038</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>1020588646679</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>3698878232632</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4293726806279</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>6666170826984</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>6969396449065</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2544600196495</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>3269169683746</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>8274378575057</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4477311159178</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2797199400568</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4227361770802</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>5403302178649</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>4892787419126</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2593380964851</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>7430684413972</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>5855834106901</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>1717383177084</t>
+          <t>5543951941740</t>
         </is>
       </c>
     </row>

--- a/excel-files/ean/ean_codes.xlsx
+++ b/excel-files/ean/ean_codes.xlsx
@@ -443,28 +443,28 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>6680489841198</t>
+          <t>5171429829879</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2607352459873</t>
+          <t>4715172468769</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>5447221072876</t>
+          <t>2483774646197</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>5543951941740</t>
+          <t>5297607499672</t>
         </is>
       </c>
     </row>
